--- a/V27-Zeeman-Effekt/auswertung/V27_Zeeman.xlsx
+++ b/V27-Zeeman-Effekt/auswertung/V27_Zeeman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burakkabakci/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burakkabakci/Desktop/Github/FPSS18_5/V27-Zeeman-Effekt/auswertung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1785CF-66AF-F449-B315-CC481E01F3CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23D4A729-0A3A-C647-B944-A3AEBCB05B21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="440" windowWidth="24940" windowHeight="14280" xr2:uid="{E533F04B-5D90-B443-8D97-8FCDDC62F06C}"/>
+    <workbookView xWindow="13640" yWindow="440" windowWidth="11620" windowHeight="14280" xr2:uid="{E533F04B-5D90-B443-8D97-8FCDDC62F06C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F404265-09F0-CA44-980D-717EBA07E354}">
   <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E31"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +433,7 @@
         <v>148</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E23" si="0">0.5*(C5/B5)*G4</f>
+        <f t="shared" ref="E5:E11" si="0">0.5*(C5/B5)*G4</f>
         <v>10.676519174041298</v>
       </c>
       <c r="G5">
@@ -742,18 +738,18 @@
         <v>178</v>
       </c>
       <c r="C25">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>13.247893258426965</v>
+        <v>6.8132022471910112</v>
       </c>
       <c r="G25">
         <v>26.95</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="1"/>
-        <v>0.31848238334751983</v>
+        <v>0.2544862059821017</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -764,18 +760,18 @@
         <v>172</v>
       </c>
       <c r="C26">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>13.396656976744186</v>
+        <v>6.7374999999999998</v>
       </c>
       <c r="G26">
         <v>26.95</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="1"/>
-        <v>0.3314164818013392</v>
+        <v>0.26277048834427036</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -786,18 +782,18 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>13.89609375</v>
+        <v>6.2321875000000002</v>
       </c>
       <c r="G27">
         <v>26.95</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>0.36293580584346613</v>
+        <v>0.27837012192041127</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -808,18 +804,18 @@
         <v>144</v>
       </c>
       <c r="C28">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>14.317187499999999</v>
+        <v>5.4274305555555555</v>
       </c>
       <c r="G28">
         <v>26.95</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="1"/>
-        <v>0.40960552399945294</v>
+        <v>0.30264504344922427</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -830,18 +826,18 @@
         <v>124</v>
       </c>
       <c r="C29">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>15.431048387096775</v>
+        <v>5.7594758064516132</v>
       </c>
       <c r="G29">
         <v>26.95</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="1"/>
-        <v>0.49563888349348106</v>
+        <v>0.3545384249099629</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -852,18 +848,18 @@
         <v>118</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>15.416313559322035</v>
+        <v>5.595550847457627</v>
       </c>
       <c r="G30">
         <v>26.95</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
-        <v>0.52055874691922421</v>
+        <v>0.37094763703776018</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -874,26 +870,26 @@
         <v>111</v>
       </c>
       <c r="C31">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>15.417342342342343</v>
+        <v>5.3414414414414413</v>
       </c>
       <c r="G31">
         <v>26.95</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
-        <v>0.55340771126493715</v>
+        <v>0.39175824531228343</v>
       </c>
       <c r="L31">
         <f>AVERAGE(E25:E31)</f>
-        <v>14.446076539133186</v>
+        <v>5.9866840568710362</v>
       </c>
       <c r="M31">
         <f>(1/A31)*SQRT(J25+J26+J27+J28+J29+J30+J31)</f>
-        <v>0.24710757537878114</v>
+        <v>0.21263728659894893</v>
       </c>
     </row>
   </sheetData>
